--- a/data/pca/factorExposure/factorExposure_2016-10-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01505079272561899</v>
+        <v>0.01136661670591843</v>
       </c>
       <c r="C2">
-        <v>-0.04838022178176311</v>
+        <v>0.04185080239853115</v>
       </c>
       <c r="D2">
-        <v>-0.03218352299401984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0618939895353678</v>
+      </c>
+      <c r="E2">
+        <v>-0.04935210790666412</v>
+      </c>
+      <c r="F2">
+        <v>-0.08730418462352686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.05604401262231859</v>
+        <v>0.03144712086112088</v>
       </c>
       <c r="C3">
-        <v>-0.09482764416791767</v>
+        <v>0.08130228924744382</v>
       </c>
       <c r="D3">
-        <v>-0.05798439670955289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09989593230589909</v>
+      </c>
+      <c r="E3">
+        <v>-0.0698646410420084</v>
+      </c>
+      <c r="F3">
+        <v>-0.02857647055720091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06431958588662533</v>
+        <v>0.05464601966032658</v>
       </c>
       <c r="C4">
-        <v>-0.05897424652930578</v>
+        <v>0.06423473393429428</v>
       </c>
       <c r="D4">
-        <v>-0.02273553756692346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05945234577662114</v>
+      </c>
+      <c r="E4">
+        <v>-0.04565902978995621</v>
+      </c>
+      <c r="F4">
+        <v>-0.08019672559759998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.0295331506508397</v>
+        <v>0.03286386537631799</v>
       </c>
       <c r="C6">
-        <v>-0.04308790350164924</v>
+        <v>0.03707288301683574</v>
       </c>
       <c r="D6">
-        <v>-0.02735612759823982</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06642775900440342</v>
+      </c>
+      <c r="E6">
+        <v>-0.0577114509680012</v>
+      </c>
+      <c r="F6">
+        <v>-0.07029865191199415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.02443576015654813</v>
+        <v>0.01966615496570563</v>
       </c>
       <c r="C7">
-        <v>-0.03803067729356095</v>
+        <v>0.03601004833353826</v>
       </c>
       <c r="D7">
-        <v>0.002689779137286067</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03846342830951172</v>
+      </c>
+      <c r="E7">
+        <v>-0.03170209680546657</v>
+      </c>
+      <c r="F7">
+        <v>-0.1119181845171475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001206326561654892</v>
+        <v>0.002656191810008732</v>
       </c>
       <c r="C8">
-        <v>-0.01090583374484225</v>
+        <v>0.02422504988320575</v>
       </c>
       <c r="D8">
-        <v>-0.01516557821902114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03518524780161167</v>
+      </c>
+      <c r="E8">
+        <v>-0.03748434885804962</v>
+      </c>
+      <c r="F8">
+        <v>-0.05538807436001953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0290921174623943</v>
+        <v>0.0339079861849514</v>
       </c>
       <c r="C9">
-        <v>-0.04290670008988588</v>
+        <v>0.05025265532718298</v>
       </c>
       <c r="D9">
-        <v>-0.0180584674148187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04411845660850442</v>
+      </c>
+      <c r="E9">
+        <v>-0.0370895868086237</v>
+      </c>
+      <c r="F9">
+        <v>-0.08793580363469289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07573488471404544</v>
+        <v>0.1048315628676788</v>
       </c>
       <c r="C10">
-        <v>0.1949701727030093</v>
+        <v>-0.1866332258579641</v>
       </c>
       <c r="D10">
-        <v>-0.01103807027177551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.001462269682711895</v>
+      </c>
+      <c r="E10">
+        <v>-0.04382907315298033</v>
+      </c>
+      <c r="F10">
+        <v>-0.04015483480728137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.04092073647595214</v>
+        <v>0.03413982542745774</v>
       </c>
       <c r="C11">
-        <v>-0.05378032473197467</v>
+        <v>0.05177035135683337</v>
       </c>
       <c r="D11">
-        <v>0.0001660465901866741</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03296201954365009</v>
+      </c>
+      <c r="E11">
+        <v>-0.004134862592610876</v>
+      </c>
+      <c r="F11">
+        <v>-0.06553847413629253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.0356482294100189</v>
+        <v>0.03495606407933699</v>
       </c>
       <c r="C12">
-        <v>-0.04346389947340343</v>
+        <v>0.04645308588562098</v>
       </c>
       <c r="D12">
-        <v>-0.001793077038596667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02562567714191769</v>
+      </c>
+      <c r="E12">
+        <v>-0.01303148762828231</v>
+      </c>
+      <c r="F12">
+        <v>-0.06702589554384482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01193885013845889</v>
+        <v>0.01044058426394795</v>
       </c>
       <c r="C13">
-        <v>-0.04270070845755909</v>
+        <v>0.04141708277973018</v>
       </c>
       <c r="D13">
-        <v>-0.0239995540169501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06584452767403293</v>
+      </c>
+      <c r="E13">
+        <v>-0.06330029826434071</v>
+      </c>
+      <c r="F13">
+        <v>-0.1171756685877474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.008773351691210388</v>
+        <v>0.004651088924301098</v>
       </c>
       <c r="C14">
-        <v>-0.03127454721723996</v>
+        <v>0.02886053261805711</v>
       </c>
       <c r="D14">
-        <v>0.01302765548920682</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03010265248141924</v>
+      </c>
+      <c r="E14">
+        <v>-0.02420049001375945</v>
+      </c>
+      <c r="F14">
+        <v>-0.09789496977456649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001590214638395793</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.001718251943473447</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.001805944490342912</v>
+      </c>
+      <c r="E15">
+        <v>-0.0002954308652237726</v>
+      </c>
+      <c r="F15">
+        <v>-0.0012984380767071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.03537002949972044</v>
+        <v>0.03202207695374802</v>
       </c>
       <c r="C16">
-        <v>-0.03855510722098234</v>
+        <v>0.04447369351460563</v>
       </c>
       <c r="D16">
-        <v>-0.006149919798511061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02814749080624936</v>
+      </c>
+      <c r="E16">
+        <v>-0.01815517512881407</v>
+      </c>
+      <c r="F16">
+        <v>-0.06957314730518876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.02794671403737471</v>
+        <v>0.01566464267046789</v>
       </c>
       <c r="C19">
-        <v>-0.05828088664871525</v>
+        <v>0.04987883976820227</v>
       </c>
       <c r="D19">
-        <v>-0.07166599522574614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1046348744645194</v>
+      </c>
+      <c r="E19">
+        <v>-0.08049323267946538</v>
+      </c>
+      <c r="F19">
+        <v>-0.1046519640076621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01511890514931172</v>
+        <v>0.01219604165749754</v>
       </c>
       <c r="C20">
-        <v>-0.04306486168280035</v>
+        <v>0.03955585851822319</v>
       </c>
       <c r="D20">
-        <v>-0.02034392937286284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04154375801823307</v>
+      </c>
+      <c r="E20">
+        <v>-0.05452615258021129</v>
+      </c>
+      <c r="F20">
+        <v>-0.09185577960471558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01120944933531151</v>
+        <v>0.004899955630073936</v>
       </c>
       <c r="C21">
-        <v>-0.04764898603323542</v>
+        <v>0.04196256410631887</v>
       </c>
       <c r="D21">
-        <v>-0.04148279371701311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07168527504650153</v>
+      </c>
+      <c r="E21">
+        <v>-0.06509564551409125</v>
+      </c>
+      <c r="F21">
+        <v>-0.132802692169896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001738825988678889</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02233023389956787</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03104401329667872</v>
+      </c>
+      <c r="E22">
+        <v>-0.01428497675558059</v>
+      </c>
+      <c r="F22">
+        <v>-0.01047059790007507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001690009653680729</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0224600736185779</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03072794510868265</v>
+      </c>
+      <c r="E23">
+        <v>-0.01456585873664945</v>
+      </c>
+      <c r="F23">
+        <v>-0.01027604454913083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02988291573174207</v>
+        <v>0.03008471073135906</v>
       </c>
       <c r="C24">
-        <v>-0.04534137115254148</v>
+        <v>0.0521674393214997</v>
       </c>
       <c r="D24">
-        <v>-0.00220629227569749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0262138672259164</v>
+      </c>
+      <c r="E24">
+        <v>-0.01424002277449734</v>
+      </c>
+      <c r="F24">
+        <v>-0.07608817028865361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04677399042343546</v>
+        <v>0.04071945006402658</v>
       </c>
       <c r="C25">
-        <v>-0.05605317517626295</v>
+        <v>0.05809952989343945</v>
       </c>
       <c r="D25">
-        <v>0.0100285412785956</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02367308491892659</v>
+      </c>
+      <c r="E25">
+        <v>-0.01082377477181043</v>
+      </c>
+      <c r="F25">
+        <v>-0.07838550325404008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.01033750769929608</v>
+        <v>0.01266584797259743</v>
       </c>
       <c r="C26">
-        <v>-0.01628681961540944</v>
+        <v>0.01547938050706986</v>
       </c>
       <c r="D26">
-        <v>-0.009468792206106006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02580307072288011</v>
+      </c>
+      <c r="E26">
+        <v>-0.02589076498177741</v>
+      </c>
+      <c r="F26">
+        <v>-0.07543505352709702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08846385279196275</v>
+        <v>0.1394754842052731</v>
       </c>
       <c r="C28">
-        <v>0.2214097482061511</v>
+        <v>-0.2365131748292954</v>
       </c>
       <c r="D28">
-        <v>-0.005432853661737218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01640118798128012</v>
+      </c>
+      <c r="E28">
+        <v>-0.04275240746850838</v>
+      </c>
+      <c r="F28">
+        <v>-0.05212926805515734</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01321825604465906</v>
+        <v>0.005697904954473758</v>
       </c>
       <c r="C29">
-        <v>-0.02443554642035276</v>
+        <v>0.0259837282762472</v>
       </c>
       <c r="D29">
-        <v>0.0110265137514788</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02139247990322807</v>
+      </c>
+      <c r="E29">
+        <v>-0.0271281844009481</v>
+      </c>
+      <c r="F29">
+        <v>-0.08778786478254366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05073585923831363</v>
+        <v>0.03714218339898369</v>
       </c>
       <c r="C30">
-        <v>-0.06557495694467201</v>
+        <v>0.06246674443869937</v>
       </c>
       <c r="D30">
-        <v>-0.04279243514541586</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1046859567171563</v>
+      </c>
+      <c r="E30">
+        <v>-0.03432074997672157</v>
+      </c>
+      <c r="F30">
+        <v>-0.1009104303958319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.04309142216247121</v>
+        <v>0.05215975083303594</v>
       </c>
       <c r="C31">
-        <v>-0.0309623283073193</v>
+        <v>0.05058105990032606</v>
       </c>
       <c r="D31">
-        <v>0.01416971150976978</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003484143939280177</v>
+      </c>
+      <c r="E31">
+        <v>-0.0424187842321885</v>
+      </c>
+      <c r="F31">
+        <v>-0.08292613948018017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.002914538999053018</v>
+        <v>0.003266647224617</v>
       </c>
       <c r="C32">
-        <v>-0.04662632486539704</v>
+        <v>0.02949986549169662</v>
       </c>
       <c r="D32">
-        <v>-0.0274419908959669</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05114191231108703</v>
+      </c>
+      <c r="E32">
+        <v>-0.02007034605616534</v>
+      </c>
+      <c r="F32">
+        <v>-0.0717132934125073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02751299766582422</v>
+        <v>0.02284095120233431</v>
       </c>
       <c r="C33">
-        <v>-0.06010243454003655</v>
+        <v>0.0530638125189267</v>
       </c>
       <c r="D33">
-        <v>-0.02648054660411408</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08143447443769716</v>
+      </c>
+      <c r="E33">
+        <v>-0.04716235976259851</v>
+      </c>
+      <c r="F33">
+        <v>-0.1297675798358096</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.05001389003498184</v>
+        <v>0.03960584971244549</v>
       </c>
       <c r="C34">
-        <v>-0.05425877865475974</v>
+        <v>0.06341644993688145</v>
       </c>
       <c r="D34">
-        <v>0.008896037640416438</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03329355542486972</v>
+      </c>
+      <c r="E34">
+        <v>0.006292792437497807</v>
+      </c>
+      <c r="F34">
+        <v>-0.07481888537885172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.009292142583175927</v>
+        <v>0.01342996138225871</v>
       </c>
       <c r="C36">
-        <v>-0.01146445085586927</v>
+        <v>0.01108751307088027</v>
       </c>
       <c r="D36">
-        <v>-0.007156347806272798</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02803494884373167</v>
+      </c>
+      <c r="E36">
+        <v>-0.0329935341867867</v>
+      </c>
+      <c r="F36">
+        <v>-0.0842111670708328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.03253556393863073</v>
+        <v>0.02510162446783137</v>
       </c>
       <c r="C38">
-        <v>-0.02426138003591641</v>
+        <v>0.02436938686175778</v>
       </c>
       <c r="D38">
-        <v>0.0003520275494401638</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02734520254979902</v>
+      </c>
+      <c r="E38">
+        <v>-0.03447395442988598</v>
+      </c>
+      <c r="F38">
+        <v>-0.07049569545418202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.042230981198642</v>
+        <v>0.03567439147755931</v>
       </c>
       <c r="C39">
-        <v>-0.06976532823851123</v>
+        <v>0.0673045061115153</v>
       </c>
       <c r="D39">
-        <v>-0.02502627348445292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05137235062242378</v>
+      </c>
+      <c r="E39">
+        <v>-0.01609972999505848</v>
+      </c>
+      <c r="F39">
+        <v>-0.09143534886355306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01949578663076187</v>
+        <v>0.01518359574806533</v>
       </c>
       <c r="C40">
-        <v>-0.02818656518712001</v>
+        <v>0.03718842693432784</v>
       </c>
       <c r="D40">
-        <v>-0.03580862088562888</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03983542264240374</v>
+      </c>
+      <c r="E40">
+        <v>-0.07028452415468382</v>
+      </c>
+      <c r="F40">
+        <v>-0.09209317231043941</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01108068931545464</v>
+        <v>0.01807882654987929</v>
       </c>
       <c r="C41">
-        <v>-0.002652835783113386</v>
+        <v>0.004186486623175395</v>
       </c>
       <c r="D41">
-        <v>-0.001348568019191217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01779498664057087</v>
+      </c>
+      <c r="E41">
+        <v>-0.03463153200299066</v>
+      </c>
+      <c r="F41">
+        <v>-0.07393706098673754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.005341452250227089</v>
+        <v>0.002590003423950394</v>
       </c>
       <c r="C42">
-        <v>-0.0156325030100298</v>
+        <v>0.008531450687857612</v>
       </c>
       <c r="D42">
-        <v>-0.008246626676518952</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.00338737587416442</v>
+      </c>
+      <c r="E42">
+        <v>-0.0009671773855420919</v>
+      </c>
+      <c r="F42">
+        <v>0.01514098163644167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03225427662538621</v>
+        <v>0.02924596535238403</v>
       </c>
       <c r="C43">
-        <v>-0.01653565828141283</v>
+        <v>0.01915885421210739</v>
       </c>
       <c r="D43">
-        <v>-0.008556637256883125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04253619129087904</v>
+      </c>
+      <c r="E43">
+        <v>-0.03945275494518678</v>
+      </c>
+      <c r="F43">
+        <v>-0.08838635546652157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.02239329619091939</v>
+        <v>0.01409977753664462</v>
       </c>
       <c r="C44">
-        <v>-0.05313234853931444</v>
+        <v>0.05007704493553598</v>
       </c>
       <c r="D44">
-        <v>-0.01969228087185639</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04239593373896587</v>
+      </c>
+      <c r="E44">
+        <v>-0.05654189179215363</v>
+      </c>
+      <c r="F44">
+        <v>-0.09544236974308506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.001893697740602127</v>
+        <v>0.00642723083080882</v>
       </c>
       <c r="C46">
-        <v>-0.01929370267340119</v>
+        <v>0.02348309363579094</v>
       </c>
       <c r="D46">
-        <v>0.0125448849219239</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01461434531038813</v>
+      </c>
+      <c r="E46">
+        <v>-0.03070222544979524</v>
+      </c>
+      <c r="F46">
+        <v>-0.1023742311402184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0779115908752176</v>
+        <v>0.0836077095324753</v>
       </c>
       <c r="C47">
-        <v>-0.07202571968157222</v>
+        <v>0.07861693452384176</v>
       </c>
       <c r="D47">
-        <v>0.01113701480671702</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01174626782223368</v>
+      </c>
+      <c r="E47">
+        <v>-0.04912721878376702</v>
+      </c>
+      <c r="F47">
+        <v>-0.08065397954151922</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01973908972106293</v>
+        <v>0.01508050197619159</v>
       </c>
       <c r="C48">
-        <v>-0.01021276899061985</v>
+        <v>0.01578447591155291</v>
       </c>
       <c r="D48">
-        <v>-0.00148617775812654</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0181619226464843</v>
+      </c>
+      <c r="E48">
+        <v>-0.04215380649378267</v>
+      </c>
+      <c r="F48">
+        <v>-0.09696220824952345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.08835987164634208</v>
+        <v>0.07016302443504753</v>
       </c>
       <c r="C50">
-        <v>-0.06642858547826509</v>
+        <v>0.06918865896463917</v>
       </c>
       <c r="D50">
-        <v>0.01645658899674358</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.00139087921268243</v>
+      </c>
+      <c r="E50">
+        <v>-0.04724203977675034</v>
+      </c>
+      <c r="F50">
+        <v>-0.06867986860718459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01218051478166698</v>
+        <v>0.009219367753301889</v>
       </c>
       <c r="C51">
-        <v>-0.04661424525381676</v>
+        <v>0.0326414835260745</v>
       </c>
       <c r="D51">
-        <v>-0.007523736260657003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04873096724112461</v>
+      </c>
+      <c r="E51">
+        <v>-0.01840486997030071</v>
+      </c>
+      <c r="F51">
+        <v>-0.08779831246783622</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.0931784611633461</v>
+        <v>0.08919488481640664</v>
       </c>
       <c r="C53">
-        <v>-0.07489662369085467</v>
+        <v>0.09026046327302401</v>
       </c>
       <c r="D53">
-        <v>0.03783533922276926</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03942027012171505</v>
+      </c>
+      <c r="E53">
+        <v>-0.04985258572422214</v>
+      </c>
+      <c r="F53">
+        <v>-0.08924587263448261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.03059683757003064</v>
+        <v>0.02791418280911025</v>
       </c>
       <c r="C54">
-        <v>-0.0152152095597408</v>
+        <v>0.02621188593888706</v>
       </c>
       <c r="D54">
-        <v>-0.008870565824936359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03518649965308118</v>
+      </c>
+      <c r="E54">
+        <v>-0.03628470611324681</v>
+      </c>
+      <c r="F54">
+        <v>-0.09947860941920897</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.07338316250973945</v>
+        <v>0.08064504762861559</v>
       </c>
       <c r="C55">
-        <v>-0.06942301977175697</v>
+        <v>0.07446347220162572</v>
       </c>
       <c r="D55">
-        <v>0.03976014286681103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04691036294433806</v>
+      </c>
+      <c r="E55">
+        <v>-0.04163301970499991</v>
+      </c>
+      <c r="F55">
+        <v>-0.06424707191172359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1495217235717775</v>
+        <v>0.1426220620915112</v>
       </c>
       <c r="C56">
-        <v>-0.09420073477288131</v>
+        <v>0.1076250697954459</v>
       </c>
       <c r="D56">
-        <v>0.04236288791823302</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04923550817392529</v>
+      </c>
+      <c r="E56">
+        <v>-0.04750549684323187</v>
+      </c>
+      <c r="F56">
+        <v>-0.05539152770381699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.004828243817864444</v>
+        <v>0.002007814164799728</v>
       </c>
       <c r="C57">
-        <v>-0.003062738818309062</v>
+        <v>0.001798969795573378</v>
       </c>
       <c r="D57">
-        <v>-0.01890231847244478</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01639585524886446</v>
+      </c>
+      <c r="E57">
+        <v>-0.00842101315302054</v>
+      </c>
+      <c r="F57">
+        <v>-0.01390716649564702</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.07770364589220284</v>
+        <v>0.03023957467546078</v>
       </c>
       <c r="C58">
-        <v>-0.03993558269738684</v>
+        <v>0.0329923162480404</v>
       </c>
       <c r="D58">
-        <v>-0.9474084167898149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.5003175823207892</v>
+      </c>
+      <c r="E58">
+        <v>-0.6927091998252635</v>
+      </c>
+      <c r="F58">
+        <v>0.4289018945740218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1331205289659125</v>
+        <v>0.1522268421029628</v>
       </c>
       <c r="C59">
-        <v>0.2055427446895266</v>
+        <v>-0.1849725871501496</v>
       </c>
       <c r="D59">
-        <v>-0.02186039928235796</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02967128872045203</v>
+      </c>
+      <c r="E59">
+        <v>-0.02354800023583722</v>
+      </c>
+      <c r="F59">
+        <v>-0.02276607305195729</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.3171035891497185</v>
+        <v>0.2803713159676055</v>
       </c>
       <c r="C60">
-        <v>-0.07927832228845128</v>
+        <v>0.1060140486294282</v>
       </c>
       <c r="D60">
-        <v>-0.0004315157411617145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2077894136127493</v>
+      </c>
+      <c r="E60">
+        <v>0.2745832743210309</v>
+      </c>
+      <c r="F60">
+        <v>0.1254260445599897</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03768794535957385</v>
+        <v>0.03818826349087328</v>
       </c>
       <c r="C61">
-        <v>-0.0607671363393688</v>
+        <v>0.06110489436038241</v>
       </c>
       <c r="D61">
-        <v>-0.01479484535039275</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04653960613265362</v>
+      </c>
+      <c r="E61">
+        <v>-0.02172286731195966</v>
+      </c>
+      <c r="F61">
+        <v>-0.08250616875208051</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01413786364454334</v>
+        <v>0.01423297125001271</v>
       </c>
       <c r="C63">
-        <v>-0.03616612133819265</v>
+        <v>0.03119206792090308</v>
       </c>
       <c r="D63">
-        <v>0.003426626919889379</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02173186911940728</v>
+      </c>
+      <c r="E63">
+        <v>-0.03592503930323974</v>
+      </c>
+      <c r="F63">
+        <v>-0.07616045788666591</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.0497857696537445</v>
+        <v>0.0527050753930059</v>
       </c>
       <c r="C64">
-        <v>-0.02936181922433649</v>
+        <v>0.05381622131183322</v>
       </c>
       <c r="D64">
-        <v>0.004057308021123474</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01166630127808257</v>
+      </c>
+      <c r="E64">
+        <v>-0.01769352440069537</v>
+      </c>
+      <c r="F64">
+        <v>-0.08772831392224785</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.09455486685710209</v>
+        <v>0.0661937752993632</v>
       </c>
       <c r="C65">
-        <v>-0.04714207491962825</v>
+        <v>0.04349985029161078</v>
       </c>
       <c r="D65">
-        <v>-0.03065860071807985</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08191130574645847</v>
+      </c>
+      <c r="E65">
+        <v>-0.03520661580607417</v>
+      </c>
+      <c r="F65">
+        <v>-0.02561063416183833</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.06580402485860438</v>
+        <v>0.04799437293151984</v>
       </c>
       <c r="C66">
-        <v>-0.1061556043255392</v>
+        <v>0.09149589998474572</v>
       </c>
       <c r="D66">
-        <v>-0.0302389060738433</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07763576572698415</v>
+      </c>
+      <c r="E66">
+        <v>-0.01944898662551086</v>
+      </c>
+      <c r="F66">
+        <v>-0.09238431061616596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05643452322561102</v>
+        <v>0.04768047942338838</v>
       </c>
       <c r="C67">
-        <v>-0.02942140134132755</v>
+        <v>0.03080604022324134</v>
       </c>
       <c r="D67">
-        <v>0.009666961441711273</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01499661963390257</v>
+      </c>
+      <c r="E67">
+        <v>-0.01959576650025248</v>
+      </c>
+      <c r="F67">
+        <v>-0.05717143222387597</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1152705635789141</v>
+        <v>0.1594396915021927</v>
       </c>
       <c r="C68">
-        <v>0.287096574749828</v>
+        <v>-0.2504451093632711</v>
       </c>
       <c r="D68">
-        <v>-0.0009194472580832036</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01979632071698549</v>
+      </c>
+      <c r="E68">
+        <v>-0.03826781520030145</v>
+      </c>
+      <c r="F68">
+        <v>-0.0168722149956626</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.08677823190344335</v>
+        <v>0.08378054903433735</v>
       </c>
       <c r="C69">
-        <v>-0.06662512337189856</v>
+        <v>0.08438884955776237</v>
       </c>
       <c r="D69">
-        <v>0.03696082216922678</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008714743365085606</v>
+      </c>
+      <c r="E69">
+        <v>-0.02309776477399842</v>
+      </c>
+      <c r="F69">
+        <v>-0.09506369034815175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1221569437269202</v>
+        <v>0.1498758948177009</v>
       </c>
       <c r="C71">
-        <v>0.2470192156456111</v>
+        <v>-0.2285288696790899</v>
       </c>
       <c r="D71">
-        <v>-0.0188996918787587</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01333905509348955</v>
+      </c>
+      <c r="E71">
+        <v>-0.05586330588015227</v>
+      </c>
+      <c r="F71">
+        <v>-0.05841022866013712</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.08337333175854865</v>
+        <v>0.09361000798092765</v>
       </c>
       <c r="C72">
-        <v>-0.04849265934224335</v>
+        <v>0.05872800009116368</v>
       </c>
       <c r="D72">
-        <v>0.02056904295560771</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01703373018791252</v>
+      </c>
+      <c r="E72">
+        <v>-0.007901618814682246</v>
+      </c>
+      <c r="F72">
+        <v>-0.07792324583547522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.4400423598412653</v>
+        <v>0.3467188522268037</v>
       </c>
       <c r="C73">
-        <v>-0.05556258707395431</v>
+        <v>0.08887483449720114</v>
       </c>
       <c r="D73">
-        <v>-0.06572781878483552</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4274722895561385</v>
+      </c>
+      <c r="E73">
+        <v>0.4805361957816082</v>
+      </c>
+      <c r="F73">
+        <v>0.3063725991202067</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1201076913612219</v>
+        <v>0.110074749603328</v>
       </c>
       <c r="C74">
-        <v>-0.115137953181683</v>
+        <v>0.1044934497545355</v>
       </c>
       <c r="D74">
-        <v>0.01714732608037227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02698149039604514</v>
+      </c>
+      <c r="E74">
+        <v>-0.06664618592151539</v>
+      </c>
+      <c r="F74">
+        <v>-0.06361475414810036</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.259120301924665</v>
+        <v>0.2531987209588995</v>
       </c>
       <c r="C75">
-        <v>-0.1305321892391777</v>
+        <v>0.1494219601067248</v>
       </c>
       <c r="D75">
-        <v>0.07532185534603497</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1272684018683607</v>
+      </c>
+      <c r="E75">
+        <v>-0.08062627597385674</v>
+      </c>
+      <c r="F75">
+        <v>-0.02716886923030473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.1190194804477896</v>
+        <v>0.1252690103680539</v>
       </c>
       <c r="C76">
-        <v>-0.1066427521417021</v>
+        <v>0.1096214853689367</v>
       </c>
       <c r="D76">
-        <v>0.05187241053066473</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06095704788025566</v>
+      </c>
+      <c r="E76">
+        <v>-0.06870559187222483</v>
+      </c>
+      <c r="F76">
+        <v>-0.06998738696455571</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07557049959586938</v>
+        <v>0.05936608414144381</v>
       </c>
       <c r="C77">
-        <v>-0.05981499562572742</v>
+        <v>0.06819142772047837</v>
       </c>
       <c r="D77">
-        <v>-0.04486485799926302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06561420326643629</v>
+      </c>
+      <c r="E77">
+        <v>-0.06200157202269681</v>
+      </c>
+      <c r="F77">
+        <v>-0.1209879455138377</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04417770134873104</v>
+        <v>0.03835441942436593</v>
       </c>
       <c r="C78">
-        <v>-0.04414016010742064</v>
+        <v>0.05437042520620761</v>
       </c>
       <c r="D78">
-        <v>-0.01537247395086282</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07231991647759096</v>
+      </c>
+      <c r="E78">
+        <v>-0.01428379424019065</v>
+      </c>
+      <c r="F78">
+        <v>-0.09678731131492001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01629981605953708</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03375851241191784</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05467954502058379</v>
+      </c>
+      <c r="E79">
+        <v>-0.03710534569174208</v>
+      </c>
+      <c r="F79">
+        <v>-0.02789503039996994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.04802535867006059</v>
+        <v>0.03354321486369099</v>
       </c>
       <c r="C80">
-        <v>-0.05095230131151727</v>
+        <v>0.05135279089043096</v>
       </c>
       <c r="D80">
-        <v>-0.03623284450392733</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04887579625197972</v>
+      </c>
+      <c r="E80">
+        <v>-0.01079879362977494</v>
+      </c>
+      <c r="F80">
+        <v>-0.03450210168792429</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1405888825696786</v>
+        <v>0.138227230075659</v>
       </c>
       <c r="C81">
-        <v>-0.08142316198419108</v>
+        <v>0.1006925482346449</v>
       </c>
       <c r="D81">
-        <v>0.03532851267142682</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09119672159110198</v>
+      </c>
+      <c r="E81">
+        <v>-0.0804677069197114</v>
+      </c>
+      <c r="F81">
+        <v>-0.03114673456532686</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.0713427153796173</v>
+        <v>0.1887889977909422</v>
       </c>
       <c r="C82">
-        <v>-0.04631142600011989</v>
+        <v>0.1438489072162841</v>
       </c>
       <c r="D82">
-        <v>0.02813541797053504</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2252258570815162</v>
+      </c>
+      <c r="E82">
+        <v>-0.01317488897342233</v>
+      </c>
+      <c r="F82">
+        <v>-0.08281873497182916</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.02631951155340688</v>
+        <v>0.0258719322732007</v>
       </c>
       <c r="C83">
-        <v>-0.02120117677144481</v>
+        <v>0.03783212949068836</v>
       </c>
       <c r="D83">
-        <v>-0.01559381148128566</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0334482865919915</v>
+      </c>
+      <c r="E83">
+        <v>-0.006317180835257217</v>
+      </c>
+      <c r="F83">
+        <v>-0.05238745733549909</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.2383568393962877</v>
+        <v>0.2026192215388912</v>
       </c>
       <c r="C85">
-        <v>-0.116197215278772</v>
+        <v>0.1319930704564263</v>
       </c>
       <c r="D85">
-        <v>0.14233664336834</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1056391003688589</v>
+      </c>
+      <c r="E85">
+        <v>-0.004830300527040802</v>
+      </c>
+      <c r="F85">
+        <v>0.01698613575192442</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.009123601632040644</v>
+        <v>0.01166971445366053</v>
       </c>
       <c r="C86">
-        <v>-0.02062758544139182</v>
+        <v>0.02923879826691398</v>
       </c>
       <c r="D86">
-        <v>-0.03641185410560087</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0779964669631857</v>
+      </c>
+      <c r="E86">
+        <v>-0.04195996070855994</v>
+      </c>
+      <c r="F86">
+        <v>-0.1454822755072407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.01519013165668808</v>
+        <v>0.0181173174633377</v>
       </c>
       <c r="C87">
-        <v>-0.02341448995330245</v>
+        <v>0.01933202919539625</v>
       </c>
       <c r="D87">
-        <v>-0.07710481244247593</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08942689852434674</v>
+      </c>
+      <c r="E87">
+        <v>-0.08019103116527769</v>
+      </c>
+      <c r="F87">
+        <v>-0.0949191974553594</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.1047604646339713</v>
+        <v>0.08746427171422677</v>
       </c>
       <c r="C88">
-        <v>-0.07003109278264404</v>
+        <v>0.06467729274557352</v>
       </c>
       <c r="D88">
-        <v>0.01230405559394254</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01344810953991477</v>
+      </c>
+      <c r="E88">
+        <v>-0.02812539575045391</v>
+      </c>
+      <c r="F88">
+        <v>-0.07276418513512824</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1877737428590419</v>
+        <v>0.2333467538827297</v>
       </c>
       <c r="C89">
-        <v>0.3763359315422564</v>
+        <v>-0.3760920873230477</v>
       </c>
       <c r="D89">
-        <v>0.03277013772100679</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01895619098590628</v>
+      </c>
+      <c r="E89">
+        <v>-0.032086781995175</v>
+      </c>
+      <c r="F89">
+        <v>-0.09893874088785747</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1730027944929313</v>
+        <v>0.2113982512929262</v>
       </c>
       <c r="C90">
-        <v>0.3487588931738588</v>
+        <v>-0.3142003595234026</v>
       </c>
       <c r="D90">
-        <v>-0.006249527984876475</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01585572835002043</v>
+      </c>
+      <c r="E90">
+        <v>-0.06152755422627052</v>
+      </c>
+      <c r="F90">
+        <v>-0.05235186990233085</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.201346277820533</v>
+        <v>0.1867945058822655</v>
       </c>
       <c r="C91">
-        <v>-0.1161000997855077</v>
+        <v>0.1447474956507524</v>
       </c>
       <c r="D91">
-        <v>0.06480343705376686</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.102281956162005</v>
+      </c>
+      <c r="E91">
+        <v>-0.07269297166128301</v>
+      </c>
+      <c r="F91">
+        <v>-0.04799641272136525</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1666469777673048</v>
+        <v>0.1908266452464622</v>
       </c>
       <c r="C92">
-        <v>0.2828187974426017</v>
+        <v>-0.2710058883590666</v>
       </c>
       <c r="D92">
-        <v>0.01520792861725711</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.00927213304311101</v>
+      </c>
+      <c r="E92">
+        <v>-0.06855724914124396</v>
+      </c>
+      <c r="F92">
+        <v>-0.07279846200301494</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.195688770833269</v>
+        <v>0.2358550386696778</v>
       </c>
       <c r="C93">
-        <v>0.3442490735148332</v>
+        <v>-0.3152859631065522</v>
       </c>
       <c r="D93">
-        <v>-0.01053137589235799</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.00308301142787869</v>
+      </c>
+      <c r="E93">
+        <v>-0.04856713996034329</v>
+      </c>
+      <c r="F93">
+        <v>-0.04366120498006808</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.2901125095399287</v>
+        <v>0.3358833880444725</v>
       </c>
       <c r="C94">
-        <v>-0.1594542514976822</v>
+        <v>0.2048723650281646</v>
       </c>
       <c r="D94">
-        <v>0.113677420745748</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4686063551727825</v>
+      </c>
+      <c r="E94">
+        <v>-0.1741501557614554</v>
+      </c>
+      <c r="F94">
+        <v>0.4365724114532633</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.09825656878513088</v>
+        <v>0.08122733299314211</v>
       </c>
       <c r="C95">
-        <v>-0.0716108397046154</v>
+        <v>0.07450505800478284</v>
       </c>
       <c r="D95">
-        <v>-0.04630384886946838</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1512263171553665</v>
+      </c>
+      <c r="E95">
+        <v>0.1395635137971255</v>
+      </c>
+      <c r="F95">
+        <v>-0.2034983934740792</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2060636716078039</v>
+        <v>0.1886618544607002</v>
       </c>
       <c r="C98">
-        <v>-0.01630892933856299</v>
+        <v>0.04378473332506637</v>
       </c>
       <c r="D98">
-        <v>-0.0344190346858766</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1735828019952367</v>
+      </c>
+      <c r="E98">
+        <v>0.152997179454989</v>
+      </c>
+      <c r="F98">
+        <v>0.04393093420761456</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01291819065715982</v>
+        <v>0.005577630557962083</v>
       </c>
       <c r="C101">
-        <v>-0.02455148467120992</v>
+        <v>0.02572903720993122</v>
       </c>
       <c r="D101">
-        <v>0.01119059361761154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02074636863049041</v>
+      </c>
+      <c r="E101">
+        <v>-0.02763912109317062</v>
+      </c>
+      <c r="F101">
+        <v>-0.08734318751816542</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0.1200286309854217</v>
+        <v>0.1198831218390358</v>
       </c>
       <c r="C102">
-        <v>-0.07750909755140431</v>
+        <v>0.1030156787752068</v>
       </c>
       <c r="D102">
-        <v>0.04897460531393039</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0506180943853218</v>
+      </c>
+      <c r="E102">
+        <v>0.01210825141086523</v>
+      </c>
+      <c r="F102">
+        <v>-0.03949147384649057</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
